--- a/Abnormality of the respiratory system_v1.0.xlsx
+++ b/Abnormality of the respiratory system_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8B996C-1A67-0C4D-B322-1F42CF89AD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611CEBE-84AB-B34D-9C71-A986F85D537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32640" yWindow="4060" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="892">
   <si>
     <t>orig_entry</t>
   </si>
@@ -1361,6 +1361,1330 @@
   </si>
   <si>
     <t>Immotile cilia</t>
+  </si>
+  <si>
+    <t>気管支結石</t>
+  </si>
+  <si>
+    <t>進行性巨大線維症</t>
+  </si>
+  <si>
+    <t>組織化肺炎</t>
+  </si>
+  <si>
+    <t>実質圧密</t>
+  </si>
+  <si>
+    <t>横紋筋ピーク</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける嚢胞と地中ガラスの複合パターン</t>
+  </si>
+  <si>
+    <t>アトール徴候</t>
+  </si>
+  <si>
+    <t>肺HRCT上の中心小葉型すりガラス混濁</t>
+  </si>
+  <si>
+    <t>CTハロー徴候</t>
+  </si>
+  <si>
+    <t>胸膜下曲線</t>
+  </si>
+  <si>
+    <t>肺実質帯</t>
+  </si>
+  <si>
+    <t>空気三日月</t>
+  </si>
+  <si>
+    <t>胸膜腫瘤</t>
+  </si>
+  <si>
+    <t>空洞性肺腫瘤</t>
+  </si>
+  <si>
+    <t>高密度肺腫瘤</t>
+  </si>
+  <si>
+    <t>後縦隔腫瘤</t>
+  </si>
+  <si>
+    <t>中縦隔腫瘤</t>
+  </si>
+  <si>
+    <t>前縦隔腫瘤</t>
+  </si>
+  <si>
+    <t>上縦隔腫瘤</t>
+  </si>
+  <si>
+    <t>空洞性肺結節</t>
+  </si>
+  <si>
+    <t>肺血流再分布</t>
+  </si>
+  <si>
+    <t>肺真菌腫</t>
+  </si>
+  <si>
+    <t>線状無気肺</t>
+  </si>
+  <si>
+    <t>円形無気肺</t>
+  </si>
+  <si>
+    <t>肺仮性空洞</t>
+  </si>
+  <si>
+    <t>連続横隔膜徴候</t>
+  </si>
+  <si>
+    <t>肺尖部混濁</t>
+  </si>
+  <si>
+    <t>気管支造影</t>
+  </si>
+  <si>
+    <t>呼気捕捉</t>
+  </si>
+  <si>
+    <t>一過性の肺浸潤</t>
+  </si>
+  <si>
+    <t>びまん性網状または細かい結節性浸潤</t>
+  </si>
+  <si>
+    <t>気管支陥凹</t>
+  </si>
+  <si>
+    <t>エアトラッピング</t>
+  </si>
+  <si>
+    <t>シグネットリング徴候</t>
+  </si>
+  <si>
+    <t>シルエット徴候</t>
+  </si>
+  <si>
+    <t>エアークレセント徴候</t>
+  </si>
+  <si>
+    <t>蕾の中の木</t>
+  </si>
+  <si>
+    <t>肺乏血</t>
+  </si>
+  <si>
+    <t>ビーズセプタム徴候</t>
+  </si>
+  <si>
+    <t>肺HRCTにおけるモザイク減弱パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける網状結節性パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける萌芽状結節-中心小葉パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける結節-ランダムパターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける結節性-リンパ節性パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける萌芽状結節を伴わない結節性中心葉パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける嚢胞性パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける網状パターン</t>
+  </si>
+  <si>
+    <t>肺モザイク減弱パターン</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける減弱パターン</t>
+  </si>
+  <si>
+    <t>肺小胞内中隔肥厚</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける結節性中隔肥厚</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける不規則な中隔肥厚</t>
+  </si>
+  <si>
+    <t>肺HRCTにおける平滑な中隔肥厚</t>
+  </si>
+  <si>
+    <t>固形肺結節</t>
+  </si>
+  <si>
+    <t>純地球性肺結節</t>
+  </si>
+  <si>
+    <t>部分固形肺結節</t>
+  </si>
+  <si>
+    <t>非定型胸膜周囲結節</t>
+  </si>
+  <si>
+    <t>典型的な壁周囲結節</t>
+  </si>
+  <si>
+    <t>喀痰増加</t>
+  </si>
+  <si>
+    <t>喀血</t>
+  </si>
+  <si>
+    <t>喀痰中の真菌菌糸</t>
+  </si>
+  <si>
+    <t>石灰化</t>
+  </si>
+  <si>
+    <t>喀痰好酸球増多</t>
+  </si>
+  <si>
+    <t>低形成前頭洞</t>
+  </si>
+  <si>
+    <t>前頭洞欠如</t>
+  </si>
+  <si>
+    <t>篩骨洞欠如</t>
+  </si>
+  <si>
+    <t>副鼻腔低形成</t>
+  </si>
+  <si>
+    <t>蝶形骨洞の異常</t>
+  </si>
+  <si>
+    <t>隆起した前頭洞</t>
+  </si>
+  <si>
+    <t>副鼻腔の空洞化</t>
+  </si>
+  <si>
+    <t>上顎洞の異常</t>
+  </si>
+  <si>
+    <t>急性副鼻腔炎</t>
+  </si>
+  <si>
+    <t>慢性副鼻腔炎</t>
+  </si>
+  <si>
+    <t>再発性副鼻腔炎</t>
+  </si>
+  <si>
+    <t>頭蓋副鼻腔の進行した空洞化</t>
+  </si>
+  <si>
+    <t>副鼻腔腫瘍</t>
+  </si>
+  <si>
+    <t>咽頭後裂</t>
+  </si>
+  <si>
+    <t>再発性咽頭炎</t>
+  </si>
+  <si>
+    <t>下咽頭形態異常</t>
+  </si>
+  <si>
+    <t>咽頭低形成</t>
+  </si>
+  <si>
+    <t>上咽頭アデノイドの増大</t>
+  </si>
+  <si>
+    <t>上咽頭アデノイドの低形成</t>
+  </si>
+  <si>
+    <t>再生不良性上咽頭アデノイド</t>
+  </si>
+  <si>
+    <t>アデノイド炎</t>
+  </si>
+  <si>
+    <t>再発性ウイルス性上気道感染症</t>
+  </si>
+  <si>
+    <t>再発性細菌性上気道感染症</t>
+  </si>
+  <si>
+    <t>再発性上・下気道感染症</t>
+  </si>
+  <si>
+    <t>再発性細気管支炎</t>
+  </si>
+  <si>
+    <t>咽頭新生物</t>
+  </si>
+  <si>
+    <t>口蓋咽頭筋の異常</t>
+  </si>
+  <si>
+    <t>咽頭滲出液</t>
+  </si>
+  <si>
+    <t>咽頭浮腫</t>
+  </si>
+  <si>
+    <t>咽頭痛</t>
+  </si>
+  <si>
+    <t>喉頭喘鳴</t>
+  </si>
+  <si>
+    <t>喉頭痙攣</t>
+  </si>
+  <si>
+    <t>喉頭がん</t>
+  </si>
+  <si>
+    <t>喉頭乳頭腫</t>
+  </si>
+  <si>
+    <t>声門下喉頭炎</t>
+  </si>
+  <si>
+    <t>喉頭軟化症</t>
+  </si>
+  <si>
+    <t>喉頭ウェブ</t>
+  </si>
+  <si>
+    <t>喉頭軟骨奇形</t>
+  </si>
+  <si>
+    <t>喉頭閉塞症</t>
+  </si>
+  <si>
+    <t>喉頭蓋低形成</t>
+  </si>
+  <si>
+    <t>喉頭蓋形成不全</t>
+  </si>
+  <si>
+    <t>二分喉頭蓋</t>
+  </si>
+  <si>
+    <t>喉頭蓋襞形態異常</t>
+  </si>
+  <si>
+    <t>輪状軟骨形態異常</t>
+  </si>
+  <si>
+    <t>喉頭裂隙</t>
+  </si>
+  <si>
+    <t>声門下狭窄</t>
+  </si>
+  <si>
+    <t>喉頭の前後短縮</t>
+  </si>
+  <si>
+    <t>喉頭腫瘤</t>
+  </si>
+  <si>
+    <t>声帯の反り</t>
+  </si>
+  <si>
+    <t>声帯ポリープ</t>
+  </si>
+  <si>
+    <t>喉頭気管狭窄</t>
+  </si>
+  <si>
+    <t>喉頭骨折</t>
+  </si>
+  <si>
+    <t>喉頭軟骨骨化症</t>
+  </si>
+  <si>
+    <t>喉頭低形成</t>
+  </si>
+  <si>
+    <t>喉頭浮腫</t>
+  </si>
+  <si>
+    <t>外側輪状甲状筋の形態異常</t>
+  </si>
+  <si>
+    <t>喉頭嚢胞</t>
+  </si>
+  <si>
+    <t>喉頭閉鎖症</t>
+  </si>
+  <si>
+    <t>喉頭石灰化</t>
+  </si>
+  <si>
+    <t>副中隔気腫</t>
+  </si>
+  <si>
+    <t>中心葉気腫</t>
+  </si>
+  <si>
+    <t>汎細気腫</t>
+  </si>
+  <si>
+    <t>間質性肺気腫</t>
+  </si>
+  <si>
+    <t>肺水疱</t>
+  </si>
+  <si>
+    <t>肺軟骨腫</t>
+  </si>
+  <si>
+    <t>肺リンパ脈管筋腫症</t>
+  </si>
+  <si>
+    <t>肺傍神経節腫</t>
+  </si>
+  <si>
+    <t>気管乳頭腫</t>
+  </si>
+  <si>
+    <t>気管気管支平滑筋腫症</t>
+  </si>
+  <si>
+    <t>気管支乳頭腫</t>
+  </si>
+  <si>
+    <t>肺胞細胞腫</t>
+  </si>
+  <si>
+    <t>胸膜肺芽腫</t>
+  </si>
+  <si>
+    <t>肺線維腫</t>
+  </si>
+  <si>
+    <t>肺腺がん</t>
+  </si>
+  <si>
+    <t>肺扁平上皮がん</t>
+  </si>
+  <si>
+    <t>大細胞肺がん</t>
+  </si>
+  <si>
+    <t>小細胞肺がん</t>
+  </si>
+  <si>
+    <t>肺リンパ腫</t>
+  </si>
+  <si>
+    <t>胸膜炎</t>
+  </si>
+  <si>
+    <t>血胸</t>
+  </si>
+  <si>
+    <t>肺裂孔構造異常</t>
+  </si>
+  <si>
+    <t>過剰肺裂孔</t>
+  </si>
+  <si>
+    <t>肺裂孔数減少</t>
+  </si>
+  <si>
+    <t>胸水貯留</t>
+  </si>
+  <si>
+    <t>滲出性胸水</t>
+  </si>
+  <si>
+    <t>胆嚢胸水</t>
+  </si>
+  <si>
+    <t>胸膜中皮腫</t>
+  </si>
+  <si>
+    <t>胸膜嚢胞</t>
+  </si>
+  <si>
+    <t>胸膜肥厚</t>
+  </si>
+  <si>
+    <t>胸膜リンパ管拡張症</t>
+  </si>
+  <si>
+    <t>両側多発性気胸</t>
+  </si>
+  <si>
+    <t>新生児自然気胸</t>
+  </si>
+  <si>
+    <t>反復性気胸</t>
+  </si>
+  <si>
+    <t>胸膜プラーク</t>
+  </si>
+  <si>
+    <t>肺膿瘍</t>
+  </si>
+  <si>
+    <t>再発性気管支肺感染症</t>
+  </si>
+  <si>
+    <t>肺炎球菌感染症の再発</t>
+  </si>
+  <si>
+    <t>再発性の副鼻腔肺感染症</t>
+  </si>
+  <si>
+    <t>誤嚥による再発性感染症</t>
+  </si>
+  <si>
+    <t>幼児期の呼吸器感染症</t>
+  </si>
+  <si>
+    <t>気管支炎</t>
+  </si>
+  <si>
+    <t>再発性ウイルス性肺炎</t>
+  </si>
+  <si>
+    <t>急性気管支炎</t>
+  </si>
+  <si>
+    <t>慢性気管支炎</t>
+  </si>
+  <si>
+    <t>再発性誤嚥性肺炎</t>
+  </si>
+  <si>
+    <t>急性誤嚥性肺炎</t>
+  </si>
+  <si>
+    <t>急性感染性肺炎</t>
+  </si>
+  <si>
+    <t>馬蹄形肺</t>
+  </si>
+  <si>
+    <t>両側三葉肺</t>
+  </si>
+  <si>
+    <t>単葉右肺</t>
+  </si>
+  <si>
+    <t>先天性肺葉過膨張</t>
+  </si>
+  <si>
+    <t>両葉性右肺</t>
+  </si>
+  <si>
+    <t>先天性肺胞形成不全</t>
+  </si>
+  <si>
+    <t>肺低形成</t>
+  </si>
+  <si>
+    <t>両側肺形成不全</t>
+  </si>
+  <si>
+    <t>片側肺形成不全</t>
+  </si>
+  <si>
+    <t>アシナー形成不全</t>
+  </si>
+  <si>
+    <t>片側原発性肺形成不全</t>
+  </si>
+  <si>
+    <t>両側性左肺を伴う両側性肺低形成</t>
+  </si>
+  <si>
+    <t>両側形態学的右肺を伴う両側性肺野座位</t>
+  </si>
+  <si>
+    <t>逆位肺座</t>
+  </si>
+  <si>
+    <t>肺葉内隔離</t>
+  </si>
+  <si>
+    <t>肺葉外隔離</t>
+  </si>
+  <si>
+    <t>肺外隔離</t>
+  </si>
+  <si>
+    <t>肺内隔離</t>
+  </si>
+  <si>
+    <t>肺胞毛細血管形成不全</t>
+  </si>
+  <si>
+    <t>多胞葉</t>
+  </si>
+  <si>
+    <t>再発性肺内出血</t>
+  </si>
+  <si>
+    <t>限局性肺出血</t>
+  </si>
+  <si>
+    <t>びまん性肺胞出血</t>
+  </si>
+  <si>
+    <t>肺静脈の不整列</t>
+  </si>
+  <si>
+    <t>低形成肺静脈</t>
+  </si>
+  <si>
+    <t>スキマ異常</t>
+  </si>
+  <si>
+    <t>混合型全肺静脈接続異常症</t>
+  </si>
+  <si>
+    <t>心臓上全肺静脈接続異常症</t>
+  </si>
+  <si>
+    <t>心臓全肺静脈接続異常症</t>
+  </si>
+  <si>
+    <t>心外膜性肺静脈還流異常症</t>
+  </si>
+  <si>
+    <t>肺静脈閉塞症</t>
+  </si>
+  <si>
+    <t>肺静脈瘤</t>
+  </si>
+  <si>
+    <t>肺静脈生理異常</t>
+  </si>
+  <si>
+    <t>肺動脈血管収縮</t>
+  </si>
+  <si>
+    <t>肺動脈内膜肥厚</t>
+  </si>
+  <si>
+    <t>肺動脈欠損</t>
+  </si>
+  <si>
+    <t>肺動脈叢状病変</t>
+  </si>
+  <si>
+    <t>肺動脈閉鎖症</t>
+  </si>
+  <si>
+    <t>肺動脈内膜線維症</t>
+  </si>
+  <si>
+    <t>肺動脈内側肥大</t>
+  </si>
+  <si>
+    <t>肺動脈外膜線維症</t>
+  </si>
+  <si>
+    <t>肺動脈瘤</t>
+  </si>
+  <si>
+    <t>肺動脈アテローム性動脈硬化症</t>
+  </si>
+  <si>
+    <t>肺動脈毛細血管前血管周囲炎症</t>
+  </si>
+  <si>
+    <t>その場肺動脈血栓症</t>
+  </si>
+  <si>
+    <t>末梢肺動脈狭窄症</t>
+  </si>
+  <si>
+    <t>上行大動脈からの右肺動脈の起始異常</t>
+  </si>
+  <si>
+    <t>上行大動脈からの左肺動脈の起始異常</t>
+  </si>
+  <si>
+    <t>肺動脈スリング</t>
+  </si>
+  <si>
+    <t>肺動脈低形成</t>
+  </si>
+  <si>
+    <t>気管支肺吻合症</t>
+  </si>
+  <si>
+    <t>肺血管奇形</t>
+  </si>
+  <si>
+    <t>末梢肺血管形成不全症</t>
+  </si>
+  <si>
+    <t>肺毛細血管腫症</t>
+  </si>
+  <si>
+    <t>気管支毛細血管拡張症</t>
+  </si>
+  <si>
+    <t>肺毛細血管拡張症</t>
+  </si>
+  <si>
+    <t>肺末梢新生血管</t>
+  </si>
+  <si>
+    <t>肺動静脈奇形</t>
+  </si>
+  <si>
+    <t>2型先天性肺気道奇形</t>
+  </si>
+  <si>
+    <t>1型先天性肺気道奇形</t>
+  </si>
+  <si>
+    <t>3型先天性肺気道奇形</t>
+  </si>
+  <si>
+    <t>線維嚢胞性肺疾患</t>
+  </si>
+  <si>
+    <t>ハニカム肺</t>
+  </si>
+  <si>
+    <t>気管支原性嚢胞</t>
+  </si>
+  <si>
+    <t>肺気腫</t>
+  </si>
+  <si>
+    <t>肺の構造的歪み</t>
+  </si>
+  <si>
+    <t>びまん性肺胞損傷</t>
+  </si>
+  <si>
+    <t>肺胞隔壁肥厚</t>
+  </si>
+  <si>
+    <t>II型肺細胞過形成</t>
+  </si>
+  <si>
+    <t>肺胞内結節性石灰化</t>
+  </si>
+  <si>
+    <t>ヒアリン膜</t>
+  </si>
+  <si>
+    <t>肺リンパ管拡張症</t>
+  </si>
+  <si>
+    <t>粘液栓</t>
+  </si>
+  <si>
+    <t>肺水腫</t>
+  </si>
+  <si>
+    <t>胸膜下間質肥厚</t>
+  </si>
+  <si>
+    <t>胸膜下ハニカム化</t>
+  </si>
+  <si>
+    <t>気管支肺胞二量体サーファクタントタンパク質B欠乏</t>
+  </si>
+  <si>
+    <t>気管支肺胞サーファクタント-プロテインCの欠失</t>
+  </si>
+  <si>
+    <t>気管支肺胞液中の脂質を含んだマクロファージ</t>
+  </si>
+  <si>
+    <t>肺胞マクロファージ中の喫煙者封入体</t>
+  </si>
+  <si>
+    <t>肺胞マクロファージ中の塵粒子封入体</t>
+  </si>
+  <si>
+    <t>気管支肺胞液中のヘモジデリン含有マクロファージ</t>
+  </si>
+  <si>
+    <t>気管支肺胞洗浄液中の好中球比率の上昇</t>
+  </si>
+  <si>
+    <t>気管支肺胞洗浄液中の好酸球比率の上昇</t>
+  </si>
+  <si>
+    <t>気管支肺胞洗浄液中のリンパ球比率の上昇</t>
+  </si>
+  <si>
+    <t>血性気管支肺胞洗浄液</t>
+  </si>
+  <si>
+    <t>気管支肺胞洗浄液の乳白色外観</t>
+  </si>
+  <si>
+    <t>肺胞内リン脂質の蓄積</t>
+  </si>
+  <si>
+    <t>好酸球性肺炎</t>
+  </si>
+  <si>
+    <t>リンパ球性間質性肺炎</t>
+  </si>
+  <si>
+    <t>濾胞性細気管支炎</t>
+  </si>
+  <si>
+    <t>閉塞性細気管支炎組織化肺炎</t>
+  </si>
+  <si>
+    <t>過敏性肺炎</t>
+  </si>
+  <si>
+    <t>多発性肺間質ヒアリン化結節</t>
+  </si>
+  <si>
+    <t>外因性リポイド肺炎</t>
+  </si>
+  <si>
+    <t>内因性リポイド肺炎</t>
+  </si>
+  <si>
+    <t>閉塞性気管支炎</t>
+  </si>
+  <si>
+    <t>胸膜石灰化</t>
+  </si>
+  <si>
+    <t>通常の間質性肺炎</t>
+  </si>
+  <si>
+    <t>小葉内間質肥厚</t>
+  </si>
+  <si>
+    <t>炭疽</t>
+  </si>
+  <si>
+    <t>気管支中心性肉芽腫症</t>
+  </si>
+  <si>
+    <t>壊死性肺肉芽腫症</t>
+  </si>
+  <si>
+    <t>非壊死性肺肉芽腫症</t>
+  </si>
+  <si>
+    <t>気管支血管周囲間質肥厚</t>
+  </si>
+  <si>
+    <t>肺間質細胞におけるグリコーゲン蓄積</t>
+  </si>
+  <si>
+    <t>両側肺尖線維症</t>
+  </si>
+  <si>
+    <t>両側肺底線維症</t>
+  </si>
+  <si>
+    <t>細胞性非特異的間質性肺炎</t>
+  </si>
+  <si>
+    <t>線維性非特異的間質性肺炎</t>
+  </si>
+  <si>
+    <t>肺壊死</t>
+  </si>
+  <si>
+    <t>落屑性間質性肺炎</t>
+  </si>
+  <si>
+    <t>肺アミロイドーシス</t>
+  </si>
+  <si>
+    <t>気管出血</t>
+  </si>
+  <si>
+    <t>気管閉鎖症</t>
+  </si>
+  <si>
+    <t>気管重複嚢胞</t>
+  </si>
+  <si>
+    <t>気管憩室症</t>
+  </si>
+  <si>
+    <t>完全気管輪</t>
+  </si>
+  <si>
+    <t>気管食道瘻</t>
+  </si>
+  <si>
+    <t>気管気管支腫大症</t>
+  </si>
+  <si>
+    <t>気管石灰化</t>
+  </si>
+  <si>
+    <t>過度の動的気道虚脱</t>
+  </si>
+  <si>
+    <t>軟骨性気管気管支軟化症</t>
+  </si>
+  <si>
+    <t>喉頭気管軟化症</t>
+  </si>
+  <si>
+    <t>気管軟骨スリーブ</t>
+  </si>
+  <si>
+    <t>気管支出血</t>
+  </si>
+  <si>
+    <t>気道神経内分泌細胞の増加</t>
+  </si>
+  <si>
+    <t>気管支壁肥厚</t>
+  </si>
+  <si>
+    <t>気管支拡張症</t>
+  </si>
+  <si>
+    <t>気管支憩室</t>
+  </si>
+  <si>
+    <t>補助心気管支</t>
+  </si>
+  <si>
+    <t>気道神経上皮小体の増加</t>
+  </si>
+  <si>
+    <t>気管支軟骨低形成</t>
+  </si>
+  <si>
+    <t>牽引性気管支肺気管支拡張症</t>
+  </si>
+  <si>
+    <t>牽引性気管支拡張症</t>
+  </si>
+  <si>
+    <t>気管支異形成</t>
+  </si>
+  <si>
+    <t>気管気管支過剰症</t>
+  </si>
+  <si>
+    <t>気管気管支転位</t>
+  </si>
+  <si>
+    <t>気管気管支肺捻転症</t>
+  </si>
+  <si>
+    <t>気管支無気肺</t>
+  </si>
+  <si>
+    <t>気管支閉鎖症</t>
+  </si>
+  <si>
+    <t>フィブリン鋳型</t>
+  </si>
+  <si>
+    <t>ムチンキャスト</t>
+  </si>
+  <si>
+    <t>呼吸性繊毛の軸索形成異常</t>
+  </si>
+  <si>
+    <t>呼吸性繊毛軸糸の放射状スポークの欠如</t>
+  </si>
+  <si>
+    <t>呼吸性運動性繊毛の中心微小管対形態異常</t>
+  </si>
+  <si>
+    <t>呼吸性運動性繊毛の中央微小管対形態異常</t>
+  </si>
+  <si>
+    <t>短縮した内側ダイニンアーム</t>
+  </si>
+  <si>
+    <t>内側と外側のダイニンアームの欠如</t>
+  </si>
+  <si>
+    <t>外側ダイニンアームの欠如・短縮</t>
+  </si>
+  <si>
+    <t>短縮した外側ダイニンアーム</t>
+  </si>
+  <si>
+    <t>異所性呼吸器粘膜</t>
+  </si>
+  <si>
+    <t>鼻粘膜繊毛クリアランスの障害</t>
+  </si>
+  <si>
+    <t>機能的残存能力の上昇</t>
+  </si>
+  <si>
+    <t>機能的残存能力の低下</t>
+  </si>
+  <si>
+    <t>KCOの増加</t>
+  </si>
+  <si>
+    <t>KCOの減少</t>
+  </si>
+  <si>
+    <t>DLCOの増加</t>
+  </si>
+  <si>
+    <t>DLCOの減少</t>
+  </si>
+  <si>
+    <t>生命維持能力の低下</t>
+  </si>
+  <si>
+    <t>強制呼気1秒量の増加</t>
+  </si>
+  <si>
+    <t>肺胞容積の減少</t>
+  </si>
+  <si>
+    <t>肺胞容量の増加</t>
+  </si>
+  <si>
+    <t>全肺活量の減少</t>
+  </si>
+  <si>
+    <t>最大酸素摂取量の減少</t>
+  </si>
+  <si>
+    <t>気管支拡張後強制換気量の減少</t>
+  </si>
+  <si>
+    <t>気管支拡張前強制肺活量の減少</t>
+  </si>
+  <si>
+    <t>RV/TLC比の低下</t>
+  </si>
+  <si>
+    <t>RV/TLC比の上昇</t>
+  </si>
+  <si>
+    <t>制限性換気障害</t>
+  </si>
+  <si>
+    <t>ピーク呼気流量の減少</t>
+  </si>
+  <si>
+    <t>残量減少</t>
+  </si>
+  <si>
+    <t>残量増加</t>
+  </si>
+  <si>
+    <t>気管支拡張後の強制呼気1秒量の減少</t>
+  </si>
+  <si>
+    <t>FEV1/FVC比の減少</t>
+  </si>
+  <si>
+    <t>気管支拡張後の強制呼気流量の25～75％減少</t>
+  </si>
+  <si>
+    <t>気管支拡張前強制呼気流量25-75％減少</t>
+  </si>
+  <si>
+    <t>シャインストークス呼吸</t>
+  </si>
+  <si>
+    <t>夜間低換気</t>
+  </si>
+  <si>
+    <t>中枢性低換気</t>
+  </si>
+  <si>
+    <t>エピソード性低換気</t>
+  </si>
+  <si>
+    <t>安静時の間欠的過呼吸</t>
+  </si>
+  <si>
+    <t>低呼吸</t>
+  </si>
+  <si>
+    <t>労作時呼吸困難</t>
+  </si>
+  <si>
+    <t>正呼吸</t>
+  </si>
+  <si>
+    <t>安静時呼吸困難</t>
+  </si>
+  <si>
+    <t>エピソード性呼吸困難</t>
+  </si>
+  <si>
+    <t>鼻腔拡張</t>
+  </si>
+  <si>
+    <t>肋間収縮</t>
+  </si>
+  <si>
+    <t>発作性呼吸困難</t>
+  </si>
+  <si>
+    <t>扁平呼吸</t>
+  </si>
+  <si>
+    <t>夜間喘鳴</t>
+  </si>
+  <si>
+    <t>中枢性睡眠時無呼吸</t>
+  </si>
+  <si>
+    <t>閉塞性睡眠時無呼吸</t>
+  </si>
+  <si>
+    <t>中枢性無呼吸</t>
+  </si>
+  <si>
+    <t>病気によって誘発される無呼吸エピソード</t>
+  </si>
+  <si>
+    <t>未熟児無呼吸</t>
+  </si>
+  <si>
+    <t>突発性無呼吸</t>
+  </si>
+  <si>
+    <t>乳児期の無呼吸エピソード</t>
+  </si>
+  <si>
+    <t>逆説的呼吸</t>
+  </si>
+  <si>
+    <t>徐呼吸</t>
+  </si>
+  <si>
+    <t>不規則呼吸</t>
+  </si>
+  <si>
+    <t>エピソード性頻呼吸</t>
+  </si>
+  <si>
+    <t>大きないびき</t>
+  </si>
+  <si>
+    <t>喘息状態</t>
+  </si>
+  <si>
+    <t>アスピリン誘発性喘息</t>
+  </si>
+  <si>
+    <t>運動誘発性喘息</t>
+  </si>
+  <si>
+    <t>吸気時の気管牽引</t>
+  </si>
+  <si>
+    <t>慢性肺疾患</t>
+  </si>
+  <si>
+    <t>不可逆的気流閉塞</t>
+  </si>
+  <si>
+    <t>慢性肺閉塞</t>
+  </si>
+  <si>
+    <t>可逆性気流閉塞</t>
+  </si>
+  <si>
+    <t>エピソード性上気道閉塞</t>
+  </si>
+  <si>
+    <t>慢性咳嗽</t>
+  </si>
+  <si>
+    <t>吠えるような咳</t>
+  </si>
+  <si>
+    <t>百日咳</t>
+  </si>
+  <si>
+    <t>再発性の咳痙攣</t>
+  </si>
+  <si>
+    <t>非生産的咳嗽</t>
+  </si>
+  <si>
+    <t>新生児呼吸調節障害</t>
+  </si>
+  <si>
+    <t>低酸素血症に対する感受性低下</t>
+  </si>
+  <si>
+    <t>鼻漏</t>
+  </si>
+  <si>
+    <t>早期吸気性クラックル</t>
+  </si>
+  <si>
+    <t>後期吸気性クラックル</t>
+  </si>
+  <si>
+    <t>呼気クラックル</t>
+  </si>
+  <si>
+    <t>スクワーク</t>
+  </si>
+  <si>
+    <t>胸膜摩擦</t>
+  </si>
+  <si>
+    <t>ロンチ</t>
+  </si>
+  <si>
+    <t>先天性喉頭喘鳴</t>
+  </si>
+  <si>
+    <t>進行性吸気性斜頸</t>
+  </si>
+  <si>
+    <t>新生児吸気性斜頸</t>
+  </si>
+  <si>
+    <t>気管支呼吸音</t>
+  </si>
+  <si>
+    <t>気道過敏性</t>
+  </si>
+  <si>
+    <t>誤嚥</t>
+  </si>
+  <si>
+    <t>筋力低下による呼吸不全の断続的エピソード</t>
+  </si>
+  <si>
+    <t>毛様体クリアランス不全による呼吸不全</t>
+  </si>
+  <si>
+    <t>肋間筋力低下</t>
+  </si>
+  <si>
+    <t>呼吸不全</t>
+  </si>
+  <si>
+    <t>急性呼吸窮迫症候群</t>
+  </si>
+  <si>
+    <t>離脱不能な人工呼吸器依存症</t>
+  </si>
+  <si>
+    <t>心肺停止</t>
+  </si>
+  <si>
+    <t>新生児窒息</t>
+  </si>
+  <si>
+    <t>肺内シャント</t>
+  </si>
+  <si>
+    <t>肺脂肪塞栓症</t>
+  </si>
+  <si>
+    <t>肺空気塞栓症</t>
+  </si>
+  <si>
+    <t>短時間作用性肺血管拡張薬に対する不十分な反応</t>
+  </si>
+  <si>
+    <t>肺静脈高血圧症</t>
+  </si>
+  <si>
+    <t>肺毛細血管楔入圧の上昇</t>
+  </si>
+  <si>
+    <t>NOチャレンジに急性反応を示さない肺動脈性肺高血圧症</t>
+  </si>
+  <si>
+    <t>NOチャレンジに正の急性反応を示す肺動脈性肺高血圧症</t>
+  </si>
+  <si>
+    <t>毛細血管後肺高血圧症</t>
+  </si>
+  <si>
+    <t>毛細血管前および毛細血管後の複合肺高血圧症</t>
+  </si>
+  <si>
+    <t>肺高血圧クリーゼ</t>
+  </si>
+  <si>
+    <t>肺血管抵抗の増大</t>
+  </si>
+  <si>
+    <t>過呼吸</t>
+  </si>
+  <si>
+    <t>低炭酸ガス血症</t>
+  </si>
+  <si>
+    <t>高酸素血症</t>
+  </si>
+  <si>
+    <t>サイレント低酸素血症</t>
+  </si>
+  <si>
+    <t>労作時酸素飽和度</t>
+  </si>
+  <si>
+    <t>正酸素血症</t>
+  </si>
+  <si>
+    <t>夜間低酸素血症</t>
+  </si>
+  <si>
+    <t>進行性肺機能障害</t>
+  </si>
+  <si>
+    <t>気管支痙攣</t>
+  </si>
+  <si>
+    <t>気管支収縮</t>
+  </si>
+  <si>
+    <t>最大呼気圧の低下</t>
+  </si>
+  <si>
+    <t>呼吸麻痺</t>
+  </si>
+  <si>
+    <t>最大吸気圧の低下</t>
+  </si>
+  <si>
+    <t>鼻一酸化窒素の減少</t>
+  </si>
+  <si>
+    <t>呼吸性毛様体拍動頻度の減少</t>
+  </si>
+  <si>
+    <t>毛様体ジスキネジア</t>
+  </si>
+  <si>
+    <t>無動性繊毛</t>
+  </si>
+  <si>
+    <t>生産性咳嗽</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>Disease name</t>
@@ -2331,11 +3655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2345,7 +3669,7 @@
     <col min="7" max="7" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2353,19 +3677,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>447</v>
+        <v>888</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>889</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>449</v>
+        <v>890</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>33652</v>
       </c>
@@ -2378,8 +3702,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>33706</v>
       </c>
@@ -2392,8 +3719,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>33670</v>
       </c>
@@ -2409,8 +3739,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>32177</v>
       </c>
@@ -2423,8 +3756,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>33656</v>
       </c>
@@ -2437,8 +3773,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>25395</v>
       </c>
@@ -2451,8 +3790,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>32983</v>
       </c>
@@ -2465,8 +3807,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>25180</v>
       </c>
@@ -2479,8 +3824,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>32971</v>
       </c>
@@ -2493,8 +3841,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>33702</v>
       </c>
@@ -2507,8 +3858,11 @@
       <c r="E11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>33650</v>
       </c>
@@ -2521,8 +3875,11 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>33661</v>
       </c>
@@ -2535,8 +3892,11 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>33824</v>
       </c>
@@ -2552,8 +3912,11 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>33831</v>
       </c>
@@ -2569,8 +3932,11 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>33830</v>
       </c>
@@ -2586,8 +3952,11 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>33829</v>
       </c>
@@ -2603,8 +3972,11 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>33828</v>
       </c>
@@ -2620,8 +3992,11 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>33827</v>
       </c>
@@ -2637,8 +4012,11 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>33825</v>
       </c>
@@ -2654,8 +4032,11 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>34015</v>
       </c>
@@ -2668,8 +4049,11 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>33674</v>
       </c>
@@ -2682,8 +4066,11 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>33651</v>
       </c>
@@ -2696,8 +4083,11 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>33657</v>
       </c>
@@ -2710,8 +4100,11 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>33658</v>
       </c>
@@ -2724,8 +4117,11 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>33648</v>
       </c>
@@ -2738,8 +4134,11 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>32173</v>
       </c>
@@ -2752,8 +4151,11 @@
       <c r="E27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>32176</v>
       </c>
@@ -2766,8 +4168,11 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>33662</v>
       </c>
@@ -2780,8 +4185,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>32968</v>
       </c>
@@ -2794,8 +4202,11 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>5828</v>
       </c>
@@ -2808,8 +4219,11 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2207</v>
       </c>
@@ -2822,8 +4236,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>33653</v>
       </c>
@@ -2836,8 +4253,11 @@
       <c r="E33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33663</v>
       </c>
@@ -2850,8 +4270,11 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>32175</v>
       </c>
@@ -2864,8 +4287,11 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>33647</v>
       </c>
@@ -2878,8 +4304,11 @@
       <c r="E36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>32172</v>
       </c>
@@ -2892,8 +4321,11 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>32174</v>
       </c>
@@ -2906,8 +4338,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>33671</v>
       </c>
@@ -2920,8 +4355,11 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>33654</v>
       </c>
@@ -2934,8 +4372,11 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>25397</v>
       </c>
@@ -2948,8 +4389,11 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>25393</v>
       </c>
@@ -2962,8 +4406,11 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>25399</v>
       </c>
@@ -2976,8 +4423,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>25400</v>
       </c>
@@ -2990,8 +4440,11 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>25398</v>
       </c>
@@ -3004,8 +4457,11 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>32972</v>
       </c>
@@ -3018,8 +4474,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>25394</v>
       </c>
@@ -3032,8 +4491,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>25391</v>
       </c>
@@ -3046,8 +4508,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>25390</v>
       </c>
@@ -3060,8 +4525,11 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>33537</v>
       </c>
@@ -3074,8 +4542,11 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>25396</v>
       </c>
@@ -3088,8 +4559,11 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>33638</v>
       </c>
@@ -3102,8 +4576,11 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>25173</v>
       </c>
@@ -3116,8 +4593,11 @@
       <c r="E53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>25174</v>
       </c>
@@ -3130,8 +4610,11 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>25172</v>
       </c>
@@ -3144,8 +4627,11 @@
       <c r="E55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>33609</v>
       </c>
@@ -3158,8 +4644,11 @@
       <c r="E56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>33612</v>
       </c>
@@ -3172,8 +4661,11 @@
       <c r="E57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>33611</v>
       </c>
@@ -3186,8 +4678,11 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>33620</v>
       </c>
@@ -3200,8 +4695,11 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>33619</v>
       </c>
@@ -3214,8 +4712,11 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>33709</v>
       </c>
@@ -3225,8 +4726,11 @@
       <c r="F61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2105</v>
       </c>
@@ -3236,8 +4740,11 @@
       <c r="F62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>34404</v>
       </c>
@@ -3247,8 +4754,11 @@
       <c r="E63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>32543</v>
       </c>
@@ -3261,8 +4771,11 @@
       <c r="E64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>32017</v>
       </c>
@@ -3272,8 +4785,11 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2738</v>
       </c>
@@ -3286,8 +4802,11 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2688</v>
       </c>
@@ -3300,8 +4819,11 @@
       <c r="E67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>5456</v>
       </c>
@@ -3314,8 +4836,11 @@
       <c r="E68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>6784</v>
       </c>
@@ -3328,8 +4853,11 @@
       <c r="E69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>430022</v>
       </c>
@@ -3342,8 +4870,11 @@
       <c r="E70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>5478</v>
       </c>
@@ -3356,8 +4887,11 @@
       <c r="E71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>34494</v>
       </c>
@@ -3370,8 +4904,11 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>430023</v>
       </c>
@@ -3384,8 +4921,11 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>255</v>
       </c>
@@ -3395,8 +4935,11 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>11109</v>
       </c>
@@ -3406,8 +4949,11 @@
       <c r="C75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>11108</v>
       </c>
@@ -3417,8 +4963,11 @@
       <c r="C76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>10540</v>
       </c>
@@ -3431,8 +4980,11 @@
       <c r="E77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>30072</v>
       </c>
@@ -3442,8 +4994,11 @@
       <c r="C78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>6783</v>
       </c>
@@ -3456,8 +5011,11 @@
       <c r="D79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>100776</v>
       </c>
@@ -3467,8 +5025,11 @@
       <c r="C80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>3000053</v>
       </c>
@@ -3481,8 +5042,11 @@
       <c r="E81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>9555</v>
       </c>
@@ -3495,8 +5059,11 @@
       <c r="E82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>40261</v>
       </c>
@@ -3509,8 +5076,11 @@
       <c r="E83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>40258</v>
       </c>
@@ -3523,8 +5093,11 @@
       <c r="E84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>40259</v>
       </c>
@@ -3537,8 +5110,11 @@
       <c r="E85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>31458</v>
       </c>
@@ -3548,8 +5124,11 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>33166</v>
       </c>
@@ -3559,8 +5138,11 @@
       <c r="C87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>31949</v>
       </c>
@@ -3570,8 +5152,11 @@
       <c r="C88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>200117</v>
       </c>
@@ -3581,8 +5166,11 @@
       <c r="C89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>100501</v>
       </c>
@@ -3592,8 +5180,11 @@
       <c r="C90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>100638</v>
       </c>
@@ -3603,8 +5194,11 @@
       <c r="C91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>3000012</v>
       </c>
@@ -3617,8 +5211,11 @@
       <c r="E92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>34035</v>
       </c>
@@ -3628,8 +5225,11 @@
       <c r="E93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>11855</v>
       </c>
@@ -3642,8 +5242,11 @@
       <c r="F94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>33050</v>
       </c>
@@ -3653,8 +5256,11 @@
       <c r="F95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>6511</v>
       </c>
@@ -3664,8 +5270,11 @@
       <c r="F96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>25425</v>
       </c>
@@ -3678,8 +5287,11 @@
       <c r="F97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>12118</v>
       </c>
@@ -3689,8 +5301,11 @@
       <c r="C98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>33001</v>
       </c>
@@ -3700,8 +5315,11 @@
       <c r="C99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>33000</v>
       </c>
@@ -3711,8 +5329,11 @@
       <c r="C100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>1601</v>
       </c>
@@ -3722,8 +5343,11 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>5950</v>
       </c>
@@ -3733,8 +5357,11 @@
       <c r="C102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>8752</v>
       </c>
@@ -3744,8 +5371,11 @@
       <c r="C103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>5945</v>
       </c>
@@ -3755,8 +5385,11 @@
       <c r="C104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>5349</v>
       </c>
@@ -3769,8 +5402,11 @@
       <c r="D105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>8753</v>
       </c>
@@ -3783,8 +5419,11 @@
       <c r="D106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>10564</v>
       </c>
@@ -3797,8 +5436,11 @@
       <c r="D107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>8744</v>
       </c>
@@ -3811,8 +5453,11 @@
       <c r="D108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>3000038</v>
       </c>
@@ -3825,8 +5470,11 @@
       <c r="D109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>8751</v>
       </c>
@@ -3839,8 +5487,11 @@
       <c r="D110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>1607</v>
       </c>
@@ -3853,8 +5504,11 @@
       <c r="D111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>5956</v>
       </c>
@@ -3867,8 +5521,11 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="G112" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>34412</v>
       </c>
@@ -3881,8 +5538,11 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="G113" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>8756</v>
       </c>
@@ -3892,8 +5552,11 @@
       <c r="D114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="G114" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>32041</v>
       </c>
@@ -3903,8 +5566,11 @@
       <c r="C115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="G115" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>4894</v>
       </c>
@@ -3914,8 +5580,11 @@
       <c r="C116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="G116" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>41157</v>
       </c>
@@ -3925,8 +5594,11 @@
       <c r="C117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="G117" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>8747</v>
       </c>
@@ -3936,8 +5608,11 @@
       <c r="C118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="G118" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>8749</v>
       </c>
@@ -3947,8 +5622,11 @@
       <c r="C119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="G119" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>12027</v>
       </c>
@@ -3961,8 +5639,11 @@
       <c r="D120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="G120" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>3000067</v>
       </c>
@@ -3975,8 +5656,11 @@
       <c r="D121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="G121" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>100640</v>
       </c>
@@ -3986,8 +5670,11 @@
       <c r="C122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="G122" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>8750</v>
       </c>
@@ -3997,8 +5684,11 @@
       <c r="C123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="G123" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>8754</v>
       </c>
@@ -4011,8 +5701,11 @@
       <c r="D124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="G124" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>33649</v>
       </c>
@@ -4022,8 +5715,11 @@
       <c r="C125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="G125" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>32966</v>
       </c>
@@ -4033,8 +5729,11 @@
       <c r="C126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="G126" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>32967</v>
       </c>
@@ -4044,8 +5743,11 @@
       <c r="C127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="G127" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>32965</v>
       </c>
@@ -4055,8 +5757,11 @@
       <c r="C128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="G128" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>32446</v>
       </c>
@@ -4066,8 +5771,11 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="G129" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>32447</v>
       </c>
@@ -4077,8 +5785,11 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="G130" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>31474</v>
       </c>
@@ -4088,8 +5799,11 @@
       <c r="C131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="G131" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>12798</v>
       </c>
@@ -4099,8 +5813,11 @@
       <c r="C132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="G132" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>100636</v>
       </c>
@@ -4110,8 +5827,11 @@
       <c r="C133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="G133" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>33003</v>
       </c>
@@ -4121,8 +5841,11 @@
       <c r="C134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="G134" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>6524</v>
       </c>
@@ -4132,8 +5855,11 @@
       <c r="C135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="G135" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>33002</v>
       </c>
@@ -4143,8 +5869,11 @@
       <c r="C136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="G136" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>6519</v>
       </c>
@@ -4154,8 +5883,11 @@
       <c r="C137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="G137" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>100528</v>
       </c>
@@ -4165,8 +5897,11 @@
       <c r="C138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="G138" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>10616</v>
       </c>
@@ -4176,8 +5911,11 @@
       <c r="C139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="G139" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>30078</v>
       </c>
@@ -4187,8 +5925,11 @@
       <c r="C140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="G140" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>30359</v>
       </c>
@@ -4198,8 +5939,11 @@
       <c r="C141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="G141" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>30360</v>
       </c>
@@ -4209,8 +5953,11 @@
       <c r="C142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="G142" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>30357</v>
       </c>
@@ -4220,8 +5967,11 @@
       <c r="C143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="G143" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>11953</v>
       </c>
@@ -4231,8 +5981,11 @@
       <c r="C144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="G144" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>2102</v>
       </c>
@@ -4245,8 +5998,11 @@
       <c r="D145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="G145" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>12151</v>
       </c>
@@ -4256,8 +6012,11 @@
       <c r="C146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="G146" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>32992</v>
       </c>
@@ -4267,8 +6026,11 @@
       <c r="D147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="G147" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>32994</v>
       </c>
@@ -4281,8 +6043,11 @@
       <c r="D148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="G148" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>32995</v>
       </c>
@@ -4295,8 +6060,11 @@
       <c r="D149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="G149" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>11919</v>
       </c>
@@ -4309,8 +6077,11 @@
       <c r="D150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="G150" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>11921</v>
       </c>
@@ -4323,8 +6094,11 @@
       <c r="D151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="G151" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>10310</v>
       </c>
@@ -4337,8 +6111,11 @@
       <c r="D152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="G152" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>11920</v>
       </c>
@@ -4351,8 +6128,11 @@
       <c r="D153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="G153" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>100002</v>
       </c>
@@ -4365,8 +6145,11 @@
       <c r="D154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="G154" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>25422</v>
       </c>
@@ -4379,8 +6162,11 @@
       <c r="D155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="G155" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>31944</v>
       </c>
@@ -4390,8 +6176,11 @@
       <c r="D156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="G156" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>6531</v>
       </c>
@@ -4404,8 +6193,11 @@
       <c r="D157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="G157" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>5939</v>
       </c>
@@ -4415,8 +6207,11 @@
       <c r="C158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="G158" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>4876</v>
       </c>
@@ -4426,8 +6221,11 @@
       <c r="C159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="G159" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>6522</v>
       </c>
@@ -4437,8 +6235,11 @@
       <c r="C160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>33398</v>
       </c>
@@ -4448,8 +6249,11 @@
       <c r="D161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>25044</v>
       </c>
@@ -4459,8 +6263,11 @@
       <c r="C162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>6538</v>
       </c>
@@ -4470,8 +6277,11 @@
       <c r="C163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>5366</v>
       </c>
@@ -4481,8 +6291,11 @@
       <c r="C164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>5425</v>
       </c>
@@ -4492,8 +6305,11 @@
       <c r="C165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="G165" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>4891</v>
       </c>
@@ -4503,8 +6319,11 @@
       <c r="C166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="G166" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>4880</v>
       </c>
@@ -4514,8 +6333,11 @@
       <c r="C167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>11950</v>
       </c>
@@ -4525,8 +6347,11 @@
       <c r="C168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="G168" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>33214</v>
       </c>
@@ -4536,8 +6361,11 @@
       <c r="C169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>12388</v>
       </c>
@@ -4547,8 +6375,11 @@
       <c r="C170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>4469</v>
       </c>
@@ -4558,8 +6389,11 @@
       <c r="C171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>2100</v>
       </c>
@@ -4569,8 +6403,11 @@
       <c r="C172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="G172" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>11952</v>
       </c>
@@ -4580,8 +6417,11 @@
       <c r="C173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="G173" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>11949</v>
       </c>
@@ -4591,8 +6431,11 @@
       <c r="C174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>33242</v>
       </c>
@@ -4605,8 +6448,11 @@
       <c r="E175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>11861</v>
       </c>
@@ -4619,8 +6465,11 @@
       <c r="E176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>33998</v>
       </c>
@@ -4633,8 +6482,11 @@
       <c r="E177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>33255</v>
       </c>
@@ -4647,8 +6499,11 @@
       <c r="E178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>33183</v>
       </c>
@@ -4661,8 +6516,11 @@
       <c r="E179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>33210</v>
       </c>
@@ -4672,8 +6530,11 @@
       <c r="C180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>2089</v>
       </c>
@@ -4686,8 +6547,11 @@
       <c r="D181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>5944</v>
       </c>
@@ -4700,8 +6564,11 @@
       <c r="D182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>30707</v>
       </c>
@@ -4714,8 +6581,11 @@
       <c r="D183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>33209</v>
       </c>
@@ -4728,8 +6598,11 @@
       <c r="D184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>6549</v>
       </c>
@@ -4742,8 +6615,11 @@
       <c r="D185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>11619</v>
       </c>
@@ -4756,8 +6632,11 @@
       <c r="D186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>11618</v>
       </c>
@@ -4770,8 +6649,11 @@
       <c r="D187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>11616</v>
       </c>
@@ -4784,8 +6666,11 @@
       <c r="D188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>10961</v>
       </c>
@@ -4798,8 +6683,11 @@
       <c r="E189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>10962</v>
       </c>
@@ -4812,8 +6700,11 @@
       <c r="E190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>6544</v>
       </c>
@@ -4826,8 +6717,11 @@
       <c r="E191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>11278</v>
       </c>
@@ -4840,8 +6734,11 @@
       <c r="E192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="G192" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>33208</v>
       </c>
@@ -4854,8 +6751,11 @@
       <c r="E193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="G193" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>33241</v>
       </c>
@@ -4868,8 +6768,11 @@
       <c r="E194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="G194" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>6535</v>
       </c>
@@ -4879,8 +6782,11 @@
       <c r="C195" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="G195" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>32990</v>
       </c>
@@ -4890,8 +6796,11 @@
       <c r="C196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="G196" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>25420</v>
       </c>
@@ -4901,8 +6810,11 @@
       <c r="C197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="G197" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>33186</v>
       </c>
@@ -4915,8 +6827,11 @@
       <c r="E198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="G198" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>5304</v>
       </c>
@@ -4929,8 +6844,11 @@
       <c r="E199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="G199" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>11626</v>
       </c>
@@ -4943,8 +6861,11 @@
       <c r="E200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="G200" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>11722</v>
       </c>
@@ -4954,8 +6875,11 @@
       <c r="C201" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="G201" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>11719</v>
       </c>
@@ -4965,8 +6889,11 @@
       <c r="C202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="G202" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>11720</v>
       </c>
@@ -4976,8 +6903,11 @@
       <c r="C203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="G203" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>11721</v>
       </c>
@@ -4987,8 +6917,11 @@
       <c r="C204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="G204" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>6518</v>
       </c>
@@ -4998,8 +6931,11 @@
       <c r="C205" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="G205" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>34389</v>
       </c>
@@ -5009,8 +6945,11 @@
       <c r="C206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="G206" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>30969</v>
       </c>
@@ -5020,8 +6959,11 @@
       <c r="D207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="G207" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>5308</v>
       </c>
@@ -5031,8 +6973,11 @@
       <c r="D208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="G208" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>33421</v>
       </c>
@@ -5042,8 +6987,11 @@
       <c r="D209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="G209" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>4960</v>
       </c>
@@ -5053,8 +7001,11 @@
       <c r="C210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="G210" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>33420</v>
       </c>
@@ -5064,8 +7015,11 @@
       <c r="C211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="G211" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>4935</v>
       </c>
@@ -5075,8 +7029,11 @@
       <c r="C212" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="G212" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>5312</v>
       </c>
@@ -5086,8 +7043,11 @@
       <c r="C213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="G213" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>4964</v>
       </c>
@@ -5100,8 +7060,11 @@
       <c r="D214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="G214" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>33422</v>
       </c>
@@ -5111,8 +7074,11 @@
       <c r="C215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="G215" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>4937</v>
       </c>
@@ -5122,8 +7088,11 @@
       <c r="C216" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="G216" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>31272</v>
       </c>
@@ -5133,8 +7102,11 @@
       <c r="C217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="G217" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>33392</v>
       </c>
@@ -5144,8 +7116,11 @@
       <c r="C218" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="G218" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>33577</v>
       </c>
@@ -5155,8 +7130,11 @@
       <c r="C219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="G219" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>4969</v>
       </c>
@@ -5166,8 +7144,11 @@
       <c r="C220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="G220" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>5143</v>
       </c>
@@ -5180,8 +7161,11 @@
       <c r="D221" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="G221" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>11661</v>
       </c>
@@ -5194,8 +7178,11 @@
       <c r="D222" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="G222" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>4961</v>
       </c>
@@ -5205,8 +7192,11 @@
       <c r="C223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="G223" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>4971</v>
       </c>
@@ -5219,8 +7209,11 @@
       <c r="D224" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="G224" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>33389</v>
       </c>
@@ -5230,8 +7223,11 @@
       <c r="C225" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="G225" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>5311</v>
       </c>
@@ -5241,8 +7237,11 @@
       <c r="C226" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="G226" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>5316</v>
       </c>
@@ -5252,8 +7251,11 @@
       <c r="C227" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="G227" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>5954</v>
       </c>
@@ -5263,8 +7265,11 @@
       <c r="C228" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="G228" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>33370</v>
       </c>
@@ -5277,8 +7282,11 @@
       <c r="D229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="G229" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>33427</v>
       </c>
@@ -5291,8 +7299,11 @@
       <c r="D230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="G230" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>33571</v>
       </c>
@@ -5305,8 +7316,11 @@
       <c r="D231" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="G231" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>6548</v>
       </c>
@@ -5316,8 +7330,11 @@
       <c r="C232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="G232" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>25726</v>
       </c>
@@ -5327,8 +7344,11 @@
       <c r="C233" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="G233" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>25725</v>
       </c>
@@ -5338,8 +7358,11 @@
       <c r="C234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="G234" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>25727</v>
       </c>
@@ -5349,8 +7372,11 @@
       <c r="C235" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="G235" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>6552</v>
       </c>
@@ -5360,8 +7386,11 @@
       <c r="C236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="G236" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>25175</v>
       </c>
@@ -5371,8 +7400,11 @@
       <c r="C237" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="G237" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>100730</v>
       </c>
@@ -5382,8 +7414,11 @@
       <c r="C238" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="G238" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>25419</v>
       </c>
@@ -5393,8 +7428,11 @@
       <c r="C239" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="G239" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>33007</v>
       </c>
@@ -5407,8 +7445,11 @@
       <c r="E240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="G240" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>33006</v>
       </c>
@@ -5418,8 +7459,11 @@
       <c r="C241" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="G241" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>33376</v>
       </c>
@@ -5432,8 +7476,11 @@
       <c r="E242" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="G242" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>33246</v>
       </c>
@@ -5446,8 +7493,11 @@
       <c r="E243" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="G243" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>33328</v>
       </c>
@@ -5460,8 +7510,11 @@
       <c r="E244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="G244" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>6514</v>
       </c>
@@ -5474,8 +7527,11 @@
       <c r="E245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="G245" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>33363</v>
       </c>
@@ -5488,8 +7544,11 @@
       <c r="E246" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="G246" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>6521</v>
       </c>
@@ -5502,8 +7561,11 @@
       <c r="E247" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="G247" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>25695</v>
       </c>
@@ -5516,8 +7578,11 @@
       <c r="E248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="G248" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>100598</v>
       </c>
@@ -5530,8 +7595,11 @@
       <c r="D249" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="G249" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>25178</v>
       </c>
@@ -5541,8 +7609,11 @@
       <c r="C250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="G250" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>31631</v>
       </c>
@@ -5552,8 +7623,11 @@
       <c r="C251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="G251" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>32981</v>
       </c>
@@ -5563,8 +7637,11 @@
       <c r="E252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="G252" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>32980</v>
       </c>
@@ -5574,8 +7651,11 @@
       <c r="E253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="G253" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>32978</v>
       </c>
@@ -5585,8 +7665,11 @@
       <c r="E254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="G254" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>32986</v>
       </c>
@@ -5596,8 +7679,11 @@
       <c r="E255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="G255" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>32985</v>
       </c>
@@ -5607,8 +7693,11 @@
       <c r="E256" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="G256" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>32979</v>
       </c>
@@ -5618,8 +7707,11 @@
       <c r="E257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="G257" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>32977</v>
       </c>
@@ -5629,8 +7721,11 @@
       <c r="E258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="G258" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>32987</v>
       </c>
@@ -5640,8 +7735,11 @@
       <c r="E259" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="G259" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>32976</v>
       </c>
@@ -5651,8 +7749,11 @@
       <c r="E260" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="G260" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>33174</v>
       </c>
@@ -5662,8 +7763,11 @@
       <c r="E261" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="G261" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>33173</v>
       </c>
@@ -5673,8 +7777,11 @@
       <c r="E262" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="G262" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>6517</v>
       </c>
@@ -5684,8 +7791,11 @@
       <c r="E263" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="G263" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>32071</v>
       </c>
@@ -5695,8 +7805,11 @@
       <c r="C264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="G264" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>6527</v>
       </c>
@@ -5706,8 +7819,11 @@
       <c r="C265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="G265" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>33583</v>
       </c>
@@ -5717,8 +7833,11 @@
       <c r="C266" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="G266" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>11945</v>
       </c>
@@ -5728,8 +7847,11 @@
       <c r="C267" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="G267" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>6516</v>
       </c>
@@ -5739,8 +7861,11 @@
       <c r="C268" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="G268" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>33248</v>
       </c>
@@ -5750,8 +7875,11 @@
       <c r="C269" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="G269" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>33366</v>
       </c>
@@ -5761,8 +7889,11 @@
       <c r="C270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="G270" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>33365</v>
       </c>
@@ -5772,8 +7903,11 @@
       <c r="C271" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="G271" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>11946</v>
       </c>
@@ -5783,8 +7917,11 @@
       <c r="C272" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="G272" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>33344</v>
       </c>
@@ -5797,8 +7934,11 @@
       <c r="E273" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="G273" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>31950</v>
       </c>
@@ -5808,8 +7948,11 @@
       <c r="C274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="G274" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>25176</v>
       </c>
@@ -5822,8 +7965,11 @@
       <c r="E275" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="G275" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>33375</v>
       </c>
@@ -5833,8 +7979,11 @@
       <c r="C276" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="G276" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>33371</v>
       </c>
@@ -5844,8 +7993,11 @@
       <c r="C277" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="G277" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>33550</v>
       </c>
@@ -5855,8 +8007,11 @@
       <c r="C278" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="G278" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>33551</v>
       </c>
@@ -5866,8 +8021,11 @@
       <c r="C279" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="G279" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>25177</v>
       </c>
@@ -5877,8 +8035,11 @@
       <c r="C280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="G280" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>33244</v>
       </c>
@@ -5891,8 +8052,11 @@
       <c r="E281" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="G281" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>33539</v>
       </c>
@@ -5908,8 +8072,11 @@
       <c r="E282" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="G282" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>550005</v>
       </c>
@@ -5925,8 +8092,11 @@
       <c r="E283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="G283" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>33586</v>
       </c>
@@ -5939,8 +8109,11 @@
       <c r="D284" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="G284" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>33585</v>
       </c>
@@ -5953,8 +8126,11 @@
       <c r="D285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="G285" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>33243</v>
       </c>
@@ -5967,8 +8143,11 @@
       <c r="D286" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="G286" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>5942</v>
       </c>
@@ -5981,8 +8160,11 @@
       <c r="D287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="G287" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>33247</v>
       </c>
@@ -5995,8 +8177,11 @@
       <c r="D288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="G288" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>34000</v>
       </c>
@@ -6009,8 +8194,11 @@
       <c r="D289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="G289" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>100682</v>
       </c>
@@ -6023,8 +8211,11 @@
       <c r="D290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="G290" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>20143</v>
       </c>
@@ -6037,8 +8228,11 @@
       <c r="D291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="G291" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>6509</v>
       </c>
@@ -6051,8 +8245,11 @@
       <c r="D292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="G292" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>41094</v>
       </c>
@@ -6065,8 +8262,11 @@
       <c r="D293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="G293" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>2575</v>
       </c>
@@ -6079,8 +8279,11 @@
       <c r="D294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="G294" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>10776</v>
       </c>
@@ -6093,8 +8296,11 @@
       <c r="D295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="G295" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>2787</v>
       </c>
@@ -6104,8 +8310,11 @@
       <c r="D296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="G296" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>33979</v>
       </c>
@@ -6115,8 +8324,11 @@
       <c r="D297" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="G297" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>33990</v>
       </c>
@@ -6129,8 +8341,11 @@
       <c r="D298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="G298" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>8755</v>
       </c>
@@ -6143,8 +8358,11 @@
       <c r="D299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="G299" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>5347</v>
       </c>
@@ -6157,8 +8375,11 @@
       <c r="D300" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="G300" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>33999</v>
       </c>
@@ -6171,8 +8392,11 @@
       <c r="D301" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:5">
+      <c r="G301" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>33377</v>
       </c>
@@ -6185,8 +8409,11 @@
       <c r="E302" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:5">
+      <c r="G302" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>33542</v>
       </c>
@@ -6196,8 +8423,11 @@
       <c r="D303" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:5">
+      <c r="G303" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>2110</v>
       </c>
@@ -6210,8 +8440,11 @@
       <c r="D304" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="G304" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>33621</v>
       </c>
@@ -6224,8 +8457,11 @@
       <c r="D305" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="G305" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>33616</v>
       </c>
@@ -6238,8 +8474,11 @@
       <c r="D306" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="G306" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>33378</v>
       </c>
@@ -6252,8 +8491,11 @@
       <c r="E307" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="G307" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>6539</v>
       </c>
@@ -6266,8 +8508,11 @@
       <c r="D308" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5">
+      <c r="G308" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>32970</v>
       </c>
@@ -6280,8 +8525,11 @@
       <c r="D309" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:5">
+      <c r="G309" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>32969</v>
       </c>
@@ -6294,8 +8542,11 @@
       <c r="D310" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
+      <c r="G310" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>6533</v>
       </c>
@@ -6308,8 +8559,11 @@
       <c r="D311" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:5">
+      <c r="G311" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>33617</v>
       </c>
@@ -6322,8 +8576,11 @@
       <c r="D312" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="G312" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>33615</v>
       </c>
@@ -6336,8 +8593,11 @@
       <c r="D313" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
+      <c r="G313" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>33618</v>
       </c>
@@ -6350,8 +8610,11 @@
       <c r="D314" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
+      <c r="G314" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>410397</v>
       </c>
@@ -6364,8 +8627,11 @@
       <c r="D315" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:5">
+      <c r="G315" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>30715</v>
       </c>
@@ -6378,8 +8644,11 @@
       <c r="D316" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:5">
+      <c r="G316" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>25697</v>
       </c>
@@ -6392,8 +8661,11 @@
       <c r="E317" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
+      <c r="G317" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>25698</v>
       </c>
@@ -6406,8 +8678,11 @@
       <c r="E318" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5">
+      <c r="G318" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>12258</v>
       </c>
@@ -6420,8 +8695,11 @@
       <c r="E319" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:5">
+      <c r="G319" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>12267</v>
       </c>
@@ -6434,8 +8712,11 @@
       <c r="E320" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:5">
+      <c r="G320" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>12264</v>
       </c>
@@ -6448,8 +8729,11 @@
       <c r="E321" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:5">
+      <c r="G321" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>12260</v>
       </c>
@@ -6462,8 +8746,11 @@
       <c r="E322" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5">
+      <c r="G322" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>200107</v>
       </c>
@@ -6473,8 +8760,11 @@
       <c r="E323" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="G323" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>12259</v>
       </c>
@@ -6484,8 +8774,11 @@
       <c r="E324" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5">
+      <c r="G324" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>200109</v>
       </c>
@@ -6495,8 +8788,11 @@
       <c r="E325" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:5">
+      <c r="G325" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>200108</v>
       </c>
@@ -6506,8 +8802,11 @@
       <c r="E326" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="G326" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327">
         <v>100241</v>
       </c>
@@ -6517,8 +8816,11 @@
       <c r="D327" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="G327" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328">
         <v>31603</v>
       </c>
@@ -6528,8 +8830,11 @@
       <c r="D328" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="G328" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329">
         <v>33751</v>
       </c>
@@ -6539,8 +8844,11 @@
       <c r="E329" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5">
+      <c r="G329" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330">
         <v>33750</v>
       </c>
@@ -6550,8 +8858,11 @@
       <c r="E330" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="G330" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331">
         <v>33373</v>
       </c>
@@ -6561,8 +8872,11 @@
       <c r="E331" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="G331" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332">
         <v>33374</v>
       </c>
@@ -6572,8 +8886,11 @@
       <c r="E332" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="G332" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333">
         <v>45050</v>
       </c>
@@ -6583,8 +8900,11 @@
       <c r="E333" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="G333" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334">
         <v>45051</v>
       </c>
@@ -6594,8 +8914,11 @@
       <c r="E334" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="G334" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335">
         <v>2792</v>
       </c>
@@ -6605,8 +8928,11 @@
       <c r="E335" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="G335" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336">
         <v>33350</v>
       </c>
@@ -6616,8 +8942,11 @@
       <c r="E336" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5">
+      <c r="G336" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337">
         <v>33633</v>
       </c>
@@ -6627,8 +8956,11 @@
       <c r="E337" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="G337" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338">
         <v>33634</v>
       </c>
@@ -6638,8 +8970,11 @@
       <c r="E338" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="G338" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339">
         <v>33169</v>
       </c>
@@ -6649,8 +8984,11 @@
       <c r="E339" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="G339" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340">
         <v>33760</v>
       </c>
@@ -6660,8 +8998,11 @@
       <c r="E340" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="G340" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341">
         <v>32357</v>
       </c>
@@ -6671,8 +9012,11 @@
       <c r="E341" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="G341" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342">
         <v>32356</v>
       </c>
@@ -6682,8 +9026,11 @@
       <c r="E342" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5">
+      <c r="G342" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343">
         <v>33773</v>
       </c>
@@ -6693,8 +9040,11 @@
       <c r="E343" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="G343" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344">
         <v>33240</v>
       </c>
@@ -6704,8 +9054,11 @@
       <c r="E344" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:5">
+      <c r="G344" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345">
         <v>2091</v>
       </c>
@@ -6715,8 +9068,11 @@
       <c r="E345" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="G345" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346">
         <v>32355</v>
       </c>
@@ -6726,8 +9082,11 @@
       <c r="E346" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="G346" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347">
         <v>33753</v>
       </c>
@@ -6737,8 +9096,11 @@
       <c r="E347" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="G347" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348">
         <v>33251</v>
       </c>
@@ -6748,8 +9110,11 @@
       <c r="E348" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:5">
+      <c r="G348" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349">
         <v>32358</v>
       </c>
@@ -6759,8 +9124,11 @@
       <c r="E349" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:5">
+      <c r="G349" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350">
         <v>30877</v>
       </c>
@@ -6770,8 +9138,11 @@
       <c r="E350" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="G350" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351">
         <v>32361</v>
       </c>
@@ -6781,8 +9152,11 @@
       <c r="E351" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="G351" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352">
         <v>32360</v>
       </c>
@@ -6792,8 +9166,11 @@
       <c r="E352" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="G352" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353">
         <v>12196</v>
       </c>
@@ -6803,8 +9180,11 @@
       <c r="F353" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="G353" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354">
         <v>2877</v>
       </c>
@@ -6814,8 +9194,11 @@
       <c r="F354" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="G354" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355">
         <v>7110</v>
       </c>
@@ -6825,8 +9208,11 @@
       <c r="F355" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="G355" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356">
         <v>4881</v>
       </c>
@@ -6836,8 +9222,11 @@
       <c r="F356" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="G356" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357">
         <v>5941</v>
       </c>
@@ -6847,8 +9236,11 @@
       <c r="F357" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="G357" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358">
         <v>40213</v>
       </c>
@@ -6858,8 +9250,11 @@
       <c r="F358" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="G358" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359">
         <v>2875</v>
       </c>
@@ -6869,8 +9264,11 @@
       <c r="F359" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="G359" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360">
         <v>12764</v>
       </c>
@@ -6880,8 +9278,11 @@
       <c r="F360" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="G360" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361">
         <v>33710</v>
       </c>
@@ -6891,8 +9292,11 @@
       <c r="F361" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="G361" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362">
         <v>4885</v>
       </c>
@@ -6902,8 +9306,11 @@
       <c r="F362" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="G362" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363">
         <v>30863</v>
       </c>
@@ -6913,8 +9320,11 @@
       <c r="F363" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="G363" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364">
         <v>30864</v>
       </c>
@@ -6924,8 +9334,11 @@
       <c r="F364" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="G364" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365">
         <v>12763</v>
       </c>
@@ -6935,8 +9348,11 @@
       <c r="F365" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="G365" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366">
         <v>33368</v>
       </c>
@@ -6946,8 +9362,11 @@
       <c r="F366" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="G366" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367">
         <v>31503</v>
       </c>
@@ -6957,8 +9376,11 @@
       <c r="F367" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="G367" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368">
         <v>10536</v>
       </c>
@@ -6971,8 +9393,11 @@
       <c r="F368" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="G368" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369">
         <v>2870</v>
       </c>
@@ -6985,8 +9410,11 @@
       <c r="F369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:6">
+      <c r="G369" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370">
         <v>2871</v>
       </c>
@@ -6999,8 +9427,11 @@
       <c r="F370" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:6">
+      <c r="G370" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371">
         <v>2872</v>
       </c>
@@ -7013,8 +9444,11 @@
       <c r="F371" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="G371" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372">
         <v>34236</v>
       </c>
@@ -7027,8 +9461,11 @@
       <c r="F372" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:6">
+      <c r="G372" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373">
         <v>2882</v>
       </c>
@@ -7041,8 +9478,11 @@
       <c r="F373" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:6">
+      <c r="G373" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374">
         <v>5949</v>
       </c>
@@ -7055,8 +9495,11 @@
       <c r="F374" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:6">
+      <c r="G374" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375">
         <v>30207</v>
       </c>
@@ -7069,8 +9512,11 @@
       <c r="F375" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="G375" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376">
         <v>46507</v>
       </c>
@@ -7080,8 +9526,11 @@
       <c r="F376" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="G376" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377">
         <v>12195</v>
       </c>
@@ -7091,8 +9540,11 @@
       <c r="F377" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:6">
+      <c r="G377" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378">
         <v>2876</v>
       </c>
@@ -7102,8 +9554,11 @@
       <c r="F378" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="G378" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379">
         <v>25372</v>
       </c>
@@ -7113,8 +9568,11 @@
       <c r="F379" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="G379" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380">
         <v>12653</v>
       </c>
@@ -7130,8 +9588,11 @@
       <c r="F380" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="G380" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381">
         <v>12042</v>
       </c>
@@ -7141,8 +9602,11 @@
       <c r="C381" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:6">
+      <c r="G381" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382">
         <v>12652</v>
       </c>
@@ -7152,8 +9616,11 @@
       <c r="C382" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="G382" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383">
         <v>25008</v>
       </c>
@@ -7166,8 +9633,11 @@
       <c r="F383" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="G383" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384">
         <v>6528</v>
       </c>
@@ -7180,8 +9650,11 @@
       <c r="D384" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="G384" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385">
         <v>33541</v>
       </c>
@@ -7194,8 +9667,11 @@
       <c r="F385" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="G385" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386">
         <v>6510</v>
       </c>
@@ -7208,8 +9684,11 @@
       <c r="F386" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="G386" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387">
         <v>33540</v>
       </c>
@@ -7222,8 +9701,11 @@
       <c r="F387" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="G387" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388">
         <v>12271</v>
       </c>
@@ -7236,8 +9718,11 @@
       <c r="F388" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="G388" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389">
         <v>31245</v>
       </c>
@@ -7247,8 +9732,11 @@
       <c r="F389" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="G389" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390">
         <v>34315</v>
       </c>
@@ -7258,8 +9746,11 @@
       <c r="F390" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="G390" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391">
         <v>33121</v>
       </c>
@@ -7269,8 +9760,11 @@
       <c r="F391" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="G391" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392">
         <v>31247</v>
       </c>
@@ -7280,8 +9774,11 @@
       <c r="C392" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="G392" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393">
         <v>33362</v>
       </c>
@@ -7294,8 +9791,11 @@
       <c r="F393" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="G393" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394">
         <v>31246</v>
       </c>
@@ -7308,8 +9808,11 @@
       <c r="F394" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="G394" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395">
         <v>2790</v>
       </c>
@@ -7319,8 +9822,11 @@
       <c r="D395" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="G395" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396">
         <v>5947</v>
       </c>
@@ -7330,8 +9836,11 @@
       <c r="D396" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="G396" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397">
         <v>31417</v>
       </c>
@@ -7341,8 +9850,11 @@
       <c r="F397" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="G397" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398">
         <v>31997</v>
       </c>
@@ -7352,8 +9864,11 @@
       <c r="F398" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="G398" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399">
         <v>31998</v>
       </c>
@@ -7363,8 +9878,11 @@
       <c r="F399" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="G399" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400">
         <v>31999</v>
       </c>
@@ -7374,8 +9892,11 @@
       <c r="F400" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="G400" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401">
         <v>31995</v>
       </c>
@@ -7385,8 +9906,11 @@
       <c r="F401" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:6">
+      <c r="G401" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402">
         <v>32000</v>
       </c>
@@ -7396,8 +9920,11 @@
       <c r="F402" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:6">
+      <c r="G402" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403">
         <v>30831</v>
       </c>
@@ -7407,8 +9934,11 @@
       <c r="F403" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:6">
+      <c r="G403" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404">
         <v>4886</v>
       </c>
@@ -7418,8 +9948,11 @@
       <c r="F404" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="G404" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405">
         <v>5951</v>
       </c>
@@ -7429,8 +9962,11 @@
       <c r="F405" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
+      <c r="G405" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406">
         <v>4875</v>
       </c>
@@ -7440,8 +9976,11 @@
       <c r="F406" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="G406" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407">
         <v>31994</v>
       </c>
@@ -7451,8 +9990,11 @@
       <c r="F407" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:6">
+      <c r="G407" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408">
         <v>32933</v>
       </c>
@@ -7465,8 +10007,11 @@
       <c r="F408" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:6">
+      <c r="G408" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409">
         <v>2835</v>
       </c>
@@ -7476,8 +10021,11 @@
       <c r="F409" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:6">
+      <c r="G409" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410">
         <v>4889</v>
       </c>
@@ -7487,8 +10035,11 @@
       <c r="F410" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:6">
+      <c r="G410" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411">
         <v>200073</v>
       </c>
@@ -7498,8 +10049,11 @@
       <c r="F411" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:6">
+      <c r="G411" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412">
         <v>4878</v>
       </c>
@@ -7509,8 +10063,11 @@
       <c r="F412" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:6">
+      <c r="G412" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413">
         <v>2878</v>
       </c>
@@ -7520,8 +10077,11 @@
       <c r="F413" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:6">
+      <c r="G413" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414">
         <v>33677</v>
       </c>
@@ -7534,8 +10094,11 @@
       <c r="D414" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:6">
+      <c r="G414" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415">
         <v>5946</v>
       </c>
@@ -7551,8 +10114,11 @@
       <c r="F415" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:6">
+      <c r="G415" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416">
         <v>6543</v>
       </c>
@@ -7562,8 +10128,11 @@
       <c r="F416" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:6">
+      <c r="G416" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417">
         <v>12768</v>
       </c>
@@ -7573,8 +10142,11 @@
       <c r="C417" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:6">
+      <c r="G417" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418">
         <v>31225</v>
       </c>
@@ -7587,8 +10159,11 @@
       <c r="D418" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="G418" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419">
         <v>32008</v>
       </c>
@@ -7598,8 +10173,11 @@
       <c r="C419" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="G419" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420">
         <v>33426</v>
       </c>
@@ -7609,8 +10187,11 @@
       <c r="C420" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:6">
+      <c r="G420" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421">
         <v>30894</v>
       </c>
@@ -7620,8 +10201,11 @@
       <c r="D421" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:6">
+      <c r="G421" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422">
         <v>30950</v>
       </c>
@@ -7631,8 +10215,11 @@
       <c r="C422" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="G422" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423">
         <v>30876</v>
       </c>
@@ -7645,8 +10232,11 @@
       <c r="E423" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="G423" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424">
         <v>33424</v>
       </c>
@@ -7662,8 +10252,11 @@
       <c r="E424" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="G424" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425">
         <v>33423</v>
       </c>
@@ -7679,8 +10272,11 @@
       <c r="E425" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="G425" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426">
         <v>33635</v>
       </c>
@@ -7696,8 +10292,11 @@
       <c r="E426" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:6">
+      <c r="G426" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427">
         <v>33636</v>
       </c>
@@ -7713,8 +10312,11 @@
       <c r="E427" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:6">
+      <c r="G427" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428">
         <v>33352</v>
       </c>
@@ -7730,8 +10332,11 @@
       <c r="E428" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="G428" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429">
         <v>5317</v>
       </c>
@@ -7741,8 +10346,11 @@
       <c r="E429" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="G429" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430">
         <v>12416</v>
       </c>
@@ -7752,8 +10360,11 @@
       <c r="F430" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="G430" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431">
         <v>12417</v>
       </c>
@@ -7763,8 +10374,11 @@
       <c r="E431" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:6">
+      <c r="G431" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432">
         <v>12419</v>
       </c>
@@ -7774,8 +10388,11 @@
       <c r="E432" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:6">
+      <c r="G432" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433">
         <v>34038</v>
       </c>
@@ -7785,8 +10402,11 @@
       <c r="E433" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:6">
+      <c r="G433" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434">
         <v>30874</v>
       </c>
@@ -7796,8 +10416,11 @@
       <c r="E434" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:6">
+      <c r="G434" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435">
         <v>33367</v>
       </c>
@@ -7807,8 +10430,11 @@
       <c r="E435" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:6">
+      <c r="G435" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436">
         <v>34312</v>
       </c>
@@ -7818,8 +10444,11 @@
       <c r="E436" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:6">
+      <c r="G436" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437">
         <v>6520</v>
       </c>
@@ -7829,8 +10458,11 @@
       <c r="D437" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:6">
+      <c r="G437" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438">
         <v>25428</v>
       </c>
@@ -7846,8 +10478,11 @@
       <c r="F438" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:6">
+      <c r="G438" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439">
         <v>4000007</v>
       </c>
@@ -7863,8 +10498,11 @@
       <c r="F439" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:6">
+      <c r="G439" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440">
         <v>12497</v>
       </c>
@@ -7874,8 +10512,11 @@
       <c r="E440" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:6">
+      <c r="G440" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441">
         <v>2203</v>
       </c>
@@ -7885,8 +10526,11 @@
       <c r="F441" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:6">
+      <c r="G441" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442">
         <v>12496</v>
       </c>
@@ -7896,8 +10540,11 @@
       <c r="E442" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:6">
+      <c r="G442" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443">
         <v>33036</v>
       </c>
@@ -7907,8 +10554,11 @@
       <c r="E443" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:6">
+      <c r="G443" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444">
         <v>33158</v>
       </c>
@@ -7918,8 +10568,11 @@
       <c r="E444" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="G444" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445">
         <v>12265</v>
       </c>
@@ -7929,8 +10582,11 @@
       <c r="E445" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:6">
+      <c r="G445" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446">
         <v>12263</v>
       </c>
@@ -7939,6 +10595,9 @@
       </c>
       <c r="E446" s="1">
         <v>1</v>
+      </c>
+      <c r="G446" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
